--- a/data/stat probs/talen horton tucker stat probs - condition.xlsx
+++ b/data/stat probs/talen horton tucker stat probs - condition.xlsx
@@ -19,12 +19,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bkn 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
@@ -587,28 +587,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -1997,22 +1997,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2831,28 +2831,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3185,28 +3185,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -4595,28 +4595,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -5937,6 +5937,1674 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>83</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>83</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>83</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>33</v>
+      </c>
+      <c r="D19" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33</v>
+      </c>
+      <c r="D20" t="n">
+        <v>67</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="n">
+        <v>67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>83</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>67</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>83</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>83</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>83</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="n">
+        <v>83</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>17</v>
+      </c>
+      <c r="H9" t="n">
+        <v>83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>67</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>33</v>
+      </c>
+      <c r="D19" t="n">
+        <v>67</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>33</v>
+      </c>
+      <c r="D20" t="n">
+        <v>67</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>33</v>
+      </c>
+      <c r="D21" t="n">
+        <v>67</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+      <c r="D22" t="n">
+        <v>67</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>67</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>83</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6005,28 +7673,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -7058,7 +8726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7127,28 +8795,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -8180,7 +9848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8249,28 +9917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -9590,7 +11258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9659,28 +11327,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -10992,2250 +12660,6 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>60</v>
-      </c>
-      <c r="H3" t="n">
-        <v>40</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" t="n">
-        <v>60</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
-        <v>80</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>80</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" t="n">
-        <v>80</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="n">
-        <v>80</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20</v>
-      </c>
-      <c r="D26" t="n">
-        <v>80</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" t="n">
-        <v>80</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>20</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" t="n">
-        <v>80</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>20</v>
-      </c>
-      <c r="D30" t="n">
-        <v>80</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20</v>
-      </c>
-      <c r="D31" t="n">
-        <v>80</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>100</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20</v>
-      </c>
-      <c r="D32" t="n">
-        <v>80</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>100</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>100</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" t="n">
-        <v>80</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>100</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>20</v>
-      </c>
-      <c r="D34" t="n">
-        <v>80</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>100</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>100</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>60</v>
-      </c>
-      <c r="H3" t="n">
-        <v>40</v>
-      </c>
-      <c r="I3" t="n">
-        <v>100</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>60</v>
-      </c>
-      <c r="H4" t="n">
-        <v>40</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" t="n">
-        <v>60</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
-        <v>80</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>80</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" t="n">
-        <v>80</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="n">
-        <v>80</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>40</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>20</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>20</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>20</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>80</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>80</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>20</v>
-      </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" t="n">
-        <v>80</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20</v>
-      </c>
-      <c r="D26" t="n">
-        <v>80</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>20</v>
-      </c>
-      <c r="D27" t="n">
-        <v>80</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>20</v>
-      </c>
-      <c r="D28" t="n">
-        <v>80</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>100</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>100</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" t="n">
-        <v>80</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>100</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>100</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>20</v>
-      </c>
-      <c r="D30" t="n">
-        <v>80</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
-        <v>20</v>
-      </c>
-      <c r="D31" t="n">
-        <v>80</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>100</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>100</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
-        <v>20</v>
-      </c>
-      <c r="D32" t="n">
-        <v>80</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>100</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>100</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" t="n">
-        <v>80</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>100</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>20</v>
-      </c>
-      <c r="D34" t="n">
-        <v>80</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>100</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>100</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>100</v>
       </c>
     </row>
@@ -13313,28 +12737,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -14307,28 +13731,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -15717,28 +15141,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -16711,28 +16135,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -18121,28 +17545,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -19531,28 +18955,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20141,28 +19565,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20751,28 +20175,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21169,28 +20593,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21587,28 +21011,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -22421,28 +21845,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -23255,22 +22679,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23769,28 +23193,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -24603,22 +24027,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25117,28 +24541,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -25631,28 +25055,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -26145,28 +25569,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26627,28 +26051,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27109,28 +26533,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27815,28 +27239,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28521,28 +27945,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28907,28 +28331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29293,28 +28717,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -29679,28 +29103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -30513,28 +29937,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -30899,28 +30323,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -32181,28 +31605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33463,28 +32887,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34297,28 +33721,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35131,28 +34555,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35901,28 +35325,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36671,28 +36095,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -37121,28 +36545,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -37571,28 +36995,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -38181,28 +37605,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -39591,28 +39015,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -40201,28 +39625,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -40907,28 +40331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -41613,28 +41037,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41999,28 +41423,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42385,28 +41809,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -42963,28 +42387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -43541,28 +42965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44119,28 +43543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -44697,28 +44121,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -45083,28 +44507,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -46493,28 +45917,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -46879,28 +46303,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -47713,28 +47137,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -48547,22 +47971,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -48933,22 +48357,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49319,28 +48743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -49897,28 +49321,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -50475,22 +49899,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51053,22 +50477,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -51631,28 +51055,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -52113,28 +51537,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -52947,28 +52371,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -53429,28 +52853,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -53975,28 +53399,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -54521,28 +53945,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55259,28 +54683,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55997,28 +55421,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -56319,28 +55743,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -56641,28 +56065,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57123,28 +56547,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -57605,28 +57029,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -58087,28 +57511,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -58921,28 +58345,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -59403,28 +58827,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -59949,28 +59373,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -60495,28 +59919,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -60977,28 +60401,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -61459,10 +60883,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -61471,16 +60895,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -61653,10 +61077,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -61665,16 +61089,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -61847,16 +61271,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -62137,16 +61561,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -62427,22 +61851,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -62813,22 +62237,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -63647,22 +63071,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -64033,28 +63457,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64355,28 +63779,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64677,28 +64101,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -64935,28 +64359,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -65193,28 +64617,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -65899,28 +65323,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -66611,10 +66035,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -66805,10 +66229,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -66993,28 +66417,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
